--- a/myproject/prac01.xlsx
+++ b/myproject/prac01.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -418,12 +418,12 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2020-01-01</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>이대</t>
+          <t>아메리카노</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -433,22 +433,22 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="F4" s="0" t="n">
-        <v>37800</v>
+        <v>296000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2020-01-04</t>
+          <t>2020-01-18</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>볶음밥</t>
+          <t>회식</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -458,7 +458,7 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>90000</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
@@ -470,22 +470,22 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2020-01-11</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>베나레스 카레</t>
+          <t>아메리카노</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>음식</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
@@ -512,56 +512,56 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>국밥</t>
+          <t>아아</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>음식</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="F7" s="0" t="n">
-        <v>6600</v>
+        <v>12000</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>25000</v>
+        <v>90000</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>4500</v>
+        <v>100000</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>2020-01-05</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">파스 </t>
+          <t>봄 카페</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>의료비 및 보험비</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>4500</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
@@ -573,44 +573,154 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>이디야</t>
+          <t>결혼식</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>기타</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>100000</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
+          <t>2020-05-20</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>보험비</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>의료비 및 보험비</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
           <t>2020-01-11</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>로또</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>아메리카노</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>카페</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>5000</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>2020-02-06</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>아이스아메리카노</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>카페</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>회식</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>음식</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>아이스아메리카노</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>카페</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>아메리카노</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>카페</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>1500</t>
         </is>
       </c>
     </row>
